--- a/data/trans_dic/P62A$invalidez-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62A$invalidez-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 11,28</t>
+          <t>6,36; 11,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,46; 14,22</t>
+          <t>8,55; 14,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,32</t>
+          <t>3,02; 7,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,19</t>
+          <t>0,91; 4,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,41</t>
+          <t>4,08; 8,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 9,06</t>
+          <t>4,67; 8,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 7,96</t>
+          <t>3,27; 8,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,57; 56,93</t>
+          <t>49,65; 56,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,22</t>
+          <t>5,72; 9,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,15</t>
+          <t>7,22; 10,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 6,75</t>
+          <t>3,64; 6,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,05; 33,32</t>
+          <t>28,01; 32,94</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 21,34</t>
+          <t>10,03; 20,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,63; 32,78</t>
+          <t>20,75; 32,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,88; 19,95</t>
+          <t>12,05; 19,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,37</t>
+          <t>0,39; 2,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 29,76</t>
+          <t>11,05; 28,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,85; 29,1</t>
+          <t>15,28; 28,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 15,38</t>
+          <t>7,34; 15,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 29,71</t>
+          <t>4,9; 29,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 21,38</t>
+          <t>12,0; 21,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,14; 29,33</t>
+          <t>20,44; 29,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 16,73</t>
+          <t>11,14; 16,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 12,96</t>
+          <t>4,5; 12,96</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 17,93</t>
+          <t>1,51; 15,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 35,93</t>
+          <t>7,37; 35,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 17,06</t>
+          <t>2,94; 16,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,29</t>
+          <t>0,0; 3,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 25,32</t>
+          <t>2,47; 21,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 34,87</t>
+          <t>5,63; 32,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 17,74</t>
+          <t>1,87; 16,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 18,22</t>
+          <t>4,76; 17,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 14,92</t>
+          <t>4,08; 15,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,66; 30,39</t>
+          <t>9,81; 28,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 14,1</t>
+          <t>4,05; 14,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,84</t>
+          <t>2,34; 8,57</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,23</t>
+          <t>7,72; 12,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,86; 19,16</t>
+          <t>13,97; 19,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,28</t>
+          <t>7,77; 11,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,41</t>
+          <t>0,8; 2,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,57</t>
+          <t>6,0; 10,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 13,08</t>
+          <t>8,5; 13,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,74</t>
+          <t>5,37; 9,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,92; 40,01</t>
+          <t>16,83; 40,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 10,83</t>
+          <t>7,73; 10,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,03; 15,71</t>
+          <t>11,87; 15,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,19</t>
+          <t>7,36; 10,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 19,86</t>
+          <t>11,69; 20,0</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de invalidez</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>42999</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>60886</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21464</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6167</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>27321</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35892</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21926</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>200630</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>70320</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>96778</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43390</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>206797</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>32466; 57286</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46922; 78261</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13319; 32507</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2721; 12631</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18353; 39037</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25064; 47627</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13923; 34504</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>187478; 213952</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54965; 87923</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>78399; 117340</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31527; 59463</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>189489; 222845</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24887</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>72438</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>60892</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4146</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15852</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36801</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27682</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>79018</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40739</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>109239</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>88574</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>83164</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16708; 34659</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>57163; 88842</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>46709; 76371</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1526; 9339</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9395; 24514</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>26080; 49179</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18888; 40378</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23712; 143112</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>30199; 54595</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>91205; 129935</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>71868; 107267</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>39395; 113523</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4206</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8595</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5952</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5717</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7103</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8444</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14311</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9948</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7937</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>919; 9385</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3363; 16234</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2038; 11385</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3925</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1020; 8799</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2003; 11546</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>985; 8642</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3523; 12907</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4158; 16070</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7969; 23369</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4942; 17091</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4269; 15625</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>72092</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>141919</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>88308</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11148</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>47411</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>78409</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53603</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>286750</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>119503</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>220328</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>141911</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>297898</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>56950; 90081</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>121586; 166805</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>69692; 107352</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6409; 19340</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>34552; 60976</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>63130; 98274</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>39525; 68287</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>157386; 374948</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>101582; 142040</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>191483; 252285</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>120265; 169523</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>202838; 346862</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>